--- a/Python_Excel.xlsx
+++ b/Python_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\salvataggi\SALVATAGGIO DATI\Documents\Seminari\Data Science (corsi)\Repository GitHub corsi\Corso-Banca-Popolare-Puglia-Basilicata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ADC87B-C8B9-4ABE-9782-DEDFD14ABECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992045AA-3863-43FE-9F68-7F997D8BBD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{48FC524D-37A5-4D0A-B22D-E39144FA5FFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{48FC524D-37A5-4D0A-B22D-E39144FA5FFC}"/>
   </bookViews>
   <sheets>
     <sheet name="iris e statistiche" sheetId="2" r:id="rId1"/>
@@ -73,14 +73,21 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="10"/>
+          <xlrd:rvb i="7"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="14"/>
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
         </ext>
       </extLst>
     </bk>
@@ -94,14 +101,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="18"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="19"/>
+          <xlrd:rvb i="16"/>
         </ext>
       </extLst>
     </bk>
@@ -140,7 +140,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -160,6 +160,9 @@
     </pythonScript>
     <pythonScript>
       <code>sample_df.describe()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sample_df.corr(numeric_only=True)</code>
     </pythonScript>
     <pythonScript>
       <code>import matplotlib.pyplot as plt
@@ -204,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="25">
   <si>
     <t>Data attribution: Fisher,R. A.. (1988). Iris. UCI Machine Learning Repository. https://doi.org/10.24432/C56C76</t>
   </si>
@@ -276,6 +279,9 @@
   </si>
   <si>
     <t>somma due valori</t>
+  </si>
+  <si>
+    <t>Seleziona la cella M6 per vedere la formula Python di esempio.</t>
   </si>
 </sst>
 </file>
@@ -375,7 +381,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Arrow: Right 1">
+        <xdr:cNvPr id="2" name="Arrow: Right 1" descr="71c6589e-546d-4b17-9679-60c2cddaae27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E178345D-57F2-48C8-93B4-9BB8C1D83EA9}"/>
@@ -446,7 +452,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Arrow: Right 2">
+        <xdr:cNvPr id="3" name="Arrow: Right 2" descr="e2be2fa3-d868-452c-82e2-a5a5407f246b">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A070DB3-A94E-4F93-814B-25C8083F2001}"/>
@@ -700,6 +706,77 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>592455</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Arrow: Right 2" descr="e2be2fa3-d868-452c-82e2-a5a5407f246b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C10287-3CF7-43C0-834D-68E88C5C9F5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10696575" y="847725"/>
+          <a:ext cx="582930" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CAEAD8"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="CAEAD8"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -720,7 +797,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Arrow: Right 1">
+        <xdr:cNvPr id="2" name="Arrow: Right 1" descr="437fab94-c6d9-48b5-817a-2345400ae514">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0B5CFE-E837-4C24-BC56-13D5CFA23DDC}"/>
@@ -1043,7 +1120,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Arrow: Right 1">
+        <xdr:cNvPr id="2" name="Arrow: Right 1" descr="3536552b-6a32-4c19-8db8-d1c3691d7d4c">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF96E95-879F-4429-93F5-7CB69B857379}"/>
@@ -1317,7 +1394,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Arrow: Right 1">
+        <xdr:cNvPr id="2" name="Arrow: Right 1" descr="95d5532e-ab24-44c5-ad3f-87befdb9a8e2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276AC282-711D-418D-963A-CF0A70F3FE9C}"/>
@@ -1640,7 +1717,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Arrow: Right 1">
+        <xdr:cNvPr id="2" name="Arrow: Right 1" descr="3cc39752-751c-4c6d-ace7-c2a422ecf014">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89554F10-66B4-4FFE-AA12-443B9E73242D}"/>
@@ -1987,7 +2064,7 @@
 </file>
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
   <a r="12" c="6">
     <v t="s"/>
     <v t="s">sepal_length</v>
@@ -2067,10 +2144,6 @@
     <v>453</v>
   </a>
   <a r="2">
-    <v>521</v>
-    <v>529</v>
-  </a>
-  <a r="2">
     <v>555</v>
     <v>433</v>
   </a>
@@ -2082,7 +2155,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="20">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="17">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -2117,12 +2190,17 @@
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=568x453 at 0x7F402ABF5730&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=568x453 at 0x7F86965E6FF0&gt;</v>
     <v>5</v>
     <v>2</v>
   </rv>
+  <rv s="5">
+    <v>1</v>
+    <v>9</v>
+    <v>Immagine generata da Python</v>
+  </rv>
   <rv s="3">
-    <v>1</v>
+    <v>2</v>
     <v>9</v>
   </rv>
   <rv s="0">
@@ -2131,37 +2209,17 @@
   <rv s="4">
     <v>Image</v>
     <v>3</v>
-    <v>7</v>
     <v>8</v>
+    <v>9</v>
   </rv>
   <rv s="2">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=521x529 at 0x7F402AD5D520&gt;</v>
-    <v>9</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=555x433 at 0x7F86963043E0&gt;</v>
+    <v>10</v>
     <v>2</v>
   </rv>
-  <rv s="3">
-    <v>2</v>
-    <v>9</v>
-  </rv>
-  <rv s="0">
-    <v>3</v>
-  </rv>
-  <rv s="4">
-    <v>Image</v>
-    <v>3</v>
-    <v>11</v>
-    <v>12</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=555x433 at 0x7F402A508350&gt;</v>
-    <v>13</v>
-    <v>2</v>
-  </rv>
-  <rv s="5">
+  <rv s="6">
     <fb>35</fb>
     <v>&lt;class 'int'&gt;</v>
     <v>int</v>
@@ -2170,22 +2228,22 @@
     <v>2</v>
   </rv>
   <rv s="0">
-    <v>4</v>
+    <v>3</v>
   </rv>
   <rv s="1">
     <v>Series</v>
     <v>5</v>
-    <v>16</v>
+    <v>13</v>
   </rv>
   <rv s="2">
     <v>&lt;class 'pandas.core.series.Series'&gt;</v>
     <v>Series</v>
     <v>0    113
 dtype: int64</v>
-    <v>17</v>
+    <v>14</v>
     <v>2</v>
   </rv>
-  <rv s="6">
+  <rv s="7">
     <fb>0</fb>
     <v>6</v>
   </rv>
@@ -2193,7 +2251,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
   <s t="_array">
     <k n="array" t="a"/>
   </s>
@@ -2218,6 +2276,11 @@
     <k n="_Format" t="spb"/>
     <k n="image" t="r"/>
     <k n="size" t="r"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
   </s>
   <s t="_python">
     <k n="Python_type" t="s"/>
@@ -2730,24 +2793,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A020CBA9-1325-4678-AC2D-A548B7E8825B}">
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:Q154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="14.5703125" customWidth="1"/>
+    <col min="13" max="17" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2768,7 +2832,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.0999999999999996</v>
       </c>
@@ -2789,7 +2853,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.9000000000000004</v>
       </c>
@@ -2806,7 +2870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.7</v>
       </c>
@@ -2826,8 +2890,11 @@
         <v>11</v>
       </c>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.5999999999999996</v>
       </c>
@@ -2859,8 +2926,24 @@
       <c r="K6" t="str">
         <v>petal_width</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" t="str" cm="1">
+        <f t="array" ref="M6:Q10">_xlfn._xlws.PY(2,0)</f>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v>sepal_length</v>
+      </c>
+      <c r="O6" t="str">
+        <v>sepal_width</v>
+      </c>
+      <c r="P6" t="str">
+        <v>petal_length</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>petal_width</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2891,8 +2974,23 @@
       <c r="K7">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" t="str">
+        <v>sepal_length</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>-0.10936924995064931</v>
+      </c>
+      <c r="P7">
+        <v>0.8717541573048716</v>
+      </c>
+      <c r="Q7">
+        <v>0.81795363336916416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.4</v>
       </c>
@@ -2923,8 +3021,23 @@
       <c r="K8">
         <v>1.1986666666666668</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" t="str">
+        <v>sepal_width</v>
+      </c>
+      <c r="N8">
+        <v>-0.10936924995064931</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>-0.42051609640115389</v>
+      </c>
+      <c r="Q8">
+        <v>-0.35654408961380507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4.5999999999999996</v>
       </c>
@@ -2955,8 +3068,23 @@
       <c r="K9">
         <v>0.76316074170084136</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" t="str">
+        <v>petal_length</v>
+      </c>
+      <c r="N9">
+        <v>0.8717541573048716</v>
+      </c>
+      <c r="O9">
+        <v>-0.42051609640115389</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0.96275709705096624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2987,8 +3115,23 @@
       <c r="K10">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" t="str">
+        <v>petal_width</v>
+      </c>
+      <c r="N10">
+        <v>0.81795363336916416</v>
+      </c>
+      <c r="O10">
+        <v>-0.35654408961380507</v>
+      </c>
+      <c r="P10">
+        <v>0.96275709705096624</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.4000000000000004</v>
       </c>
@@ -3020,7 +3163,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.9000000000000004</v>
       </c>
@@ -3052,7 +3195,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.4</v>
       </c>
@@ -3084,7 +3227,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4.8</v>
       </c>
@@ -3116,7 +3259,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4.8</v>
       </c>
@@ -3133,7 +3276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4.3</v>
       </c>
@@ -5533,7 +5676,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="e" cm="1" vm="2">
-        <f t="array" ref="G3">_xlfn._xlws.PY(2,1,IrisDataSet23[sepal_length],IrisDataSet23[sepal_width])</f>
+        <f t="array" ref="G3">_xlfn._xlws.PY(3,1,IrisDataSet23[sepal_length],IrisDataSet23[sepal_width])</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -8142,7 +8285,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="str" cm="1">
-        <f t="array" ref="G3:K7">_xlfn._xlws.PY(3,0,IrisDataSet24[#All])</f>
+        <f t="array" ref="G3:K7">_xlfn._xlws.PY(4,0,IrisDataSet24[#All])</f>
         <v/>
       </c>
       <c r="H3" t="str">
@@ -10769,7 +10912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0F19D1-87E3-48CA-8EC2-83A8EB69FAD7}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -10822,7 +10965,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="e" cm="1" vm="3">
-        <f t="array" ref="G3">_xlfn._xlws.PY(4,1,IrisDataSet25[#All])</f>
+        <f t="array" ref="G3">_xlfn._xlws.PY(5,0,IrisDataSet25[#All])</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -13431,7 +13574,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="e" cm="1" vm="4">
-        <f t="array" ref="G3">_xlfn._xlws.PY(5,1,IrisDataSet26[#All])</f>
+        <f t="array" ref="G3">_xlfn._xlws.PY(6,1,IrisDataSet26[#All])</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -15987,7 +16130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E41544-D8C1-4414-8AFA-EE89DAD2F9BC}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -16015,17 +16158,17 @@
         <v>25</v>
       </c>
       <c r="F2" s="4" cm="1" vm="5">
-        <f t="array" ref="F2">_xlfn._xlws.PY(6,1,A2,B2)</f>
+        <f t="array" ref="F2">_xlfn._xlws.PY(7,1,A2,B2)</f>
         <v>35</v>
       </c>
       <c r="H2" s="4" t="e" cm="1" vm="6">
-        <f t="array" ref="H2">_xlfn._xlws.PY(7,1,Tabella6[campo1])</f>
+        <f t="array" ref="H2">_xlfn._xlws.PY(8,1,Tabella6[campo1])</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" cm="1" vm="7">
-        <f t="array" ref="A4">_xlfn._xlws.PY(8,0)</f>
+        <f t="array" ref="A4">_xlfn._xlws.PY(9,0)</f>
         <v>0</v>
       </c>
       <c r="I4" t="s">
